--- a/templates/export/stops.xlsx
+++ b/templates/export/stops.xlsx
@@ -69,7 +69,7 @@
     <t>Start Address</t>
   </si>
   <si>
-    <t>Start Odometer</t>
+    <t>Odometer</t>
   </si>
   <si>
     <t>End</t>
@@ -258,7 +258,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>

--- a/templates/export/stops.xlsx
+++ b/templates/export/stops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -77,9 +77,6 @@
     <t>Report type:</t>
   </si>
   <si>
-    <t>Stops</t>
-  </si>
-  <si>
     <t>Device:</t>
   </si>
   <si>
@@ -98,27 +95,12 @@
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Start Address</t>
-  </si>
-  <si>
     <t>Odometer</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Engine Hours</t>
   </si>
   <si>
-    <t>Spent Fuel</t>
-  </si>
-  <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", stop.startTime, locale, timezone)}</t>
   </si>
   <si>
@@ -138,12 +120,30 @@
   </si>
   <si>
     <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", stop.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", stop.spentFuel / 3.785) : "".format("%.1f l", stop.spentFuel)}</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Spent Utilized</t>
+  </si>
+  <si>
+    <t>Parking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
@@ -232,26 +232,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -269,82 +260,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,9 +536,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +576,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,145 +800,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875"/>
-    <col min="2" max="2" width="47.85546875"/>
-    <col min="3" max="4" width="20.85546875"/>
-    <col min="5" max="5" width="16"/>
-    <col min="6" max="6" width="16.28515625"/>
-    <col min="7" max="7" width="14.5703125"/>
+    <col min="1" max="1" width="20.85546875" style="18"/>
+    <col min="2" max="2" width="50.85546875" style="18" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" style="18"/>
+    <col min="5" max="5" width="16" style="18"/>
+    <col min="6" max="6" width="16.28515625" style="18"/>
+    <col min="7" max="7" width="14.5703125" style="18"/>
     <col min="8" max="27" width="8.7109375"/>
     <col min="28" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
